--- a/Backlog Geral.xlsx
+++ b/Backlog Geral.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMUEL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto api 2022\API-2Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC723DE6-C79D-4C78-8023-DAD91FE5ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F832687-7E5D-42DD-B5F7-16A57F493BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1341,16 +1341,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" s="47">
         <v>20</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>35</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6">
       <c r="A22" s="47" t="s">
         <v>6</v>
       </c>
@@ -1367,30 +1367,30 @@
         <v>21</v>
       </c>
       <c r="C22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="47">
+        <v>22</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D23" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="47">
-        <v>21</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>41</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>47</v>
@@ -1404,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>37</v>
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="47">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="48" t="s">
         <v>66</v>
@@ -1444,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="47">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="48" t="s">
         <v>50</v>
@@ -1464,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="47">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>48</v>
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="47">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="48" t="s">
         <v>52</v>
@@ -17681,11 +17681,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F997"/>
+  <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17801,16 +17801,16 @@
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="28">
         <v>5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>9</v>
@@ -17827,19 +17827,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F7" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="67.5" customHeight="1">
+    <row r="8" spans="1:6" ht="36.75" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
@@ -17847,10 +17847,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>35</v>
@@ -17859,7 +17859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="67.5" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>6</v>
       </c>
@@ -17867,25 +17867,37 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+    <row r="10" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="28">
+        <v>9</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="31"/>
@@ -17943,7 +17955,7 @@
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -25783,19 +25795,27 @@
       <c r="E997" s="31"/>
       <c r="F997" s="31"/>
     </row>
+    <row r="998" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A998" s="31"/>
+      <c r="B998" s="31"/>
+      <c r="C998" s="31"/>
+      <c r="D998" s="32"/>
+      <c r="E998" s="31"/>
+      <c r="F998" s="31"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E16">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH(("Alta"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E16">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Média">
       <formula>NOT(ISERROR(SEARCH(("Média"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E16">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Baixa">
       <formula>NOT(ISERROR(SEARCH(("Baixa"),(E2))))</formula>
     </cfRule>
@@ -25807,11 +25827,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:I1004"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -25870,13 +25890,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>9</v>
@@ -25885,135 +25905,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B5" s="38">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="23">
+    </row>
+    <row r="6" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="38">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1">
       <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="35"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="35"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="31"/>
@@ -26119,24 +26127,24 @@
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="9"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="31"/>
@@ -33962,26 +33970,18 @@
       <c r="E1004" s="31"/>
       <c r="F1004" s="31"/>
     </row>
-    <row r="1005" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1005" s="31"/>
-      <c r="B1005" s="31"/>
-      <c r="C1005" s="31"/>
-      <c r="D1005" s="32"/>
-      <c r="E1005" s="31"/>
-      <c r="F1005" s="31"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H10:H11 H26 B2:B5 E2:E24">
+  <conditionalFormatting sqref="H9:H10 H25 B2:B4 E2:E23">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Alta">
       <formula>NOT(ISERROR(SEARCH(("Alta"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11 H26 B2:B5 E2:E24">
+  <conditionalFormatting sqref="H9:H10 H25 B2:B4 E2:E23">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Média">
       <formula>NOT(ISERROR(SEARCH(("Média"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11 H26 B2:B5 E2:E24">
+  <conditionalFormatting sqref="H9:H10 H25 B2:B4 E2:E23">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Baixa">
       <formula>NOT(ISERROR(SEARCH(("Baixa"),(B2))))</formula>
     </cfRule>
